--- a/input/Cosine2_Phase.xlsx
+++ b/input/Cosine2_Phase.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05723866184800096</v>
+        <v>0.06993827754423682</v>
       </c>
       <c r="C2" t="n">
-        <v>1.268850939031633</v>
+        <v>1.28051242846386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0667538069845587</v>
+        <v>0.1118724862322458</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.241660973353061</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06275582802391655</v>
+        <v>0.07145923101128866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4645336504961242</v>
+        <v>0.3653689161226725</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05752600831689356</v>
+        <v>0.08092646617548818</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.483321946706122</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02910496732965281</v>
+        <v>0.0254584143442825</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3797499529762375</v>
+        <v>-0.4374107944482474</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09898868260714255</v>
+        <v>0.05605660395857231</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>0.724982920059183</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03445096242581875</v>
+        <v>0.05328850242883358</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.351020307703461</v>
+        <v>-1.405751457105617</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1160999801686415</v>
+        <v>0.04873707937447077</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>0.966643893412244</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03452914928714636</v>
+        <v>0.05455910920632782</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.093527038813398</v>
+        <v>-1.731039329317289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1191376997175496</v>
+        <v>0.06947594556545653</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.208304866765305</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06305169449210518</v>
+        <v>0.04802847949661104</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.305364678150553</v>
+        <v>-2.457473450745832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08437306782027963</v>
+        <v>0.103691524082343</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1.449965840118366</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06593695245442906</v>
+        <v>0.04959071786274524</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.48346382740141</v>
+        <v>-2.424510454062424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06427231907722222</v>
+        <v>0.08238748799846336</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>1.691626813471427</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02562898155822813</v>
+        <v>0.03230547907421665</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.287207040308086</v>
+        <v>-2.159009737473113</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05095244316727293</v>
+        <v>0.05389533225787194</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>1.933287786824488</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05044408979100144</v>
+        <v>0.05015817493312774</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.66395066693543</v>
+        <v>-1.684239037260034</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1092800223034931</v>
+        <v>0.1050997489056637</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2.174948760177549</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05795877826940901</v>
+        <v>0.04429376798151233</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.978996782727907</v>
+        <v>-0.9502772827632566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04035633118247839</v>
+        <v>0.07611530644491771</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2.41660973353061</v>
       </c>
       <c r="B12" t="n">
-        <v>0.07212061431056906</v>
+        <v>0.05862732986404143</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03243726504295784</v>
+        <v>-0.05127554389323999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05310353302541917</v>
+        <v>0.07896955599256779</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>2.658270706883671</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06184983780668463</v>
+        <v>0.0590147319268373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7234515899424074</v>
+        <v>0.8503318604047228</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08834601057425789</v>
+        <v>0.08671861254113698</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>2.899931680236732</v>
       </c>
       <c r="B14" t="n">
-        <v>0.04984922510135692</v>
+        <v>0.05508826264160128</v>
       </c>
       <c r="C14" t="n">
-        <v>1.77323593376703</v>
+        <v>1.612384144361176</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06340648493156016</v>
+        <v>0.1000246706241896</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>3.141592653589793</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03173979425659506</v>
+        <v>0.0515852461788705</v>
       </c>
       <c r="C15" t="n">
-        <v>2.036948102353399</v>
+        <v>2.034225911906142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.106585001574794</v>
+        <v>0.06439692709560274</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>3.383253626942854</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04784814475777487</v>
+        <v>0.05760902023758323</v>
       </c>
       <c r="C16" t="n">
-        <v>2.499080835978288</v>
+        <v>2.393022483076007</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05111806711170964</v>
+        <v>0.08356460243363614</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>3.624914600295915</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05278629459459511</v>
+        <v>0.03377036796550489</v>
       </c>
       <c r="C17" t="n">
-        <v>2.487479664483142</v>
+        <v>2.455401831136851</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06946779047205448</v>
+        <v>0.08362945325109637</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>3.866575573648976</v>
       </c>
       <c r="B18" t="n">
-        <v>0.04800962053945804</v>
+        <v>0.06860553834659003</v>
       </c>
       <c r="C18" t="n">
-        <v>2.040592993822964</v>
+        <v>2.05303728248256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08752393360132751</v>
+        <v>0.05120992943220692</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>4.108236547002037</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05515679307718745</v>
+        <v>0.02782889964574108</v>
       </c>
       <c r="C19" t="n">
-        <v>1.452704745470429</v>
+        <v>1.507401522273392</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04912908442292819</v>
+        <v>0.07083716993144563</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>4.349897520355098</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05218516925791204</v>
+        <v>0.0324205808074701</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7350564746158252</v>
+        <v>0.6965527366921982</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07936151518168154</v>
+        <v>0.07080628667109412</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>4.591558493708159</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06536355958162225</v>
+        <v>0.04727553853307719</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3428150750050467</v>
+        <v>-0.1743236302332338</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1119482083784122</v>
+        <v>0.1003161406649846</v>
       </c>
     </row>
     <row r="22">
@@ -740,13 +740,13 @@
         <v>4.83321946706122</v>
       </c>
       <c r="B22" t="n">
-        <v>0.05576487902761624</v>
+        <v>0.0594780288679938</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.281009501836005</v>
+        <v>-1.143159088146192</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04683746390269693</v>
+        <v>0.1002070098640018</v>
       </c>
     </row>
     <row r="23">
@@ -754,13 +754,13 @@
         <v>5.074880440414281</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05594867642027379</v>
+        <v>0.05993713717158124</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.805070316650501</v>
+        <v>-1.735473921028106</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09713679601936308</v>
+        <v>0.107584484309577</v>
       </c>
     </row>
     <row r="24">
@@ -768,13 +768,13 @@
         <v>5.316541413767342</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03830501445205339</v>
+        <v>0.0438076884547291</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.363688610793644</v>
+        <v>-2.299765500584122</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1199831739931855</v>
+        <v>0.08716557339378048</v>
       </c>
     </row>
     <row r="25">
@@ -782,13 +782,13 @@
         <v>5.558202387120403</v>
       </c>
       <c r="B25" t="n">
-        <v>0.03340237570263774</v>
+        <v>0.03055626529535757</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.596086671471534</v>
+        <v>-2.655938911974428</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09500929005229522</v>
+        <v>0.07964231354411151</v>
       </c>
     </row>
     <row r="26">
@@ -796,13 +796,13 @@
         <v>5.799863360473464</v>
       </c>
       <c r="B26" t="n">
-        <v>0.03624318319460159</v>
+        <v>0.03839341754284745</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.319282019341242</v>
+        <v>-2.337502576633018</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06755769503087178</v>
+        <v>0.0992286706519033</v>
       </c>
     </row>
     <row r="27">
@@ -810,13 +810,13 @@
         <v>6.041524333826525</v>
       </c>
       <c r="B27" t="n">
-        <v>0.04919629740012213</v>
+        <v>0.02560499860769954</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.914033472256236</v>
+        <v>-2.059846620228276</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09752712775842018</v>
+        <v>0.07597648962284616</v>
       </c>
     </row>
     <row r="28">
@@ -824,13 +824,13 @@
         <v>6.283185307179586</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02744262417805229</v>
+        <v>0.03164229339536411</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.241426076774389</v>
+        <v>-1.140601647102034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07168796722956214</v>
+        <v>0.0683117137390553</v>
       </c>
     </row>
     <row r="29">
@@ -838,13 +838,13 @@
         <v>6.524846280532647</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0563791844023229</v>
+        <v>0.04861168616380662</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.4514746015556846</v>
+        <v>-0.4290268899286393</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05462268336651395</v>
+        <v>0.09224680711727345</v>
       </c>
     </row>
     <row r="30">
@@ -852,13 +852,13 @@
         <v>6.766507253885708</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02572342099496013</v>
+        <v>0.03919435478712565</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6210783960909121</v>
+        <v>0.6280264612853667</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09637482754208034</v>
+        <v>0.06097825787215714</v>
       </c>
     </row>
     <row r="31">
@@ -866,13 +866,13 @@
         <v>7.008168227238769</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04914550631429555</v>
+        <v>0.03973383891424129</v>
       </c>
       <c r="C31" t="n">
-        <v>1.413391694238883</v>
+        <v>1.413195814605684</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07852178800397419</v>
+        <v>0.06371145584359497</v>
       </c>
     </row>
     <row r="32">
@@ -880,13 +880,13 @@
         <v>7.24982920059183</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04117704287811916</v>
+        <v>0.06200217437958402</v>
       </c>
       <c r="C32" t="n">
-        <v>2.056608146586082</v>
+        <v>2.087911496232874</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07979443061171146</v>
+        <v>0.1007856168527</v>
       </c>
     </row>
     <row r="33">
@@ -894,13 +894,13 @@
         <v>7.491490173944891</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03627167155217164</v>
+        <v>0.05732318083683485</v>
       </c>
       <c r="C33" t="n">
-        <v>2.485669111622801</v>
+        <v>2.258732545881426</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06076996303449898</v>
+        <v>0.1122469837881425</v>
       </c>
     </row>
     <row r="34">
@@ -908,13 +908,13 @@
         <v>7.733151147297952</v>
       </c>
       <c r="B34" t="n">
-        <v>0.06341416565683713</v>
+        <v>0.07357778822896557</v>
       </c>
       <c r="C34" t="n">
-        <v>2.48778871621089</v>
+        <v>2.506916827043825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07892371989497006</v>
+        <v>0.07272840995529302</v>
       </c>
     </row>
     <row r="35">
@@ -922,13 +922,13 @@
         <v>7.974812120651013</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06344195262578639</v>
+        <v>0.04379520590964318</v>
       </c>
       <c r="C35" t="n">
-        <v>2.503743093262182</v>
+        <v>2.340303521220163</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08259956361321341</v>
+        <v>0.09632992271537255</v>
       </c>
     </row>
     <row r="36">
@@ -936,13 +936,13 @@
         <v>8.216473094004074</v>
       </c>
       <c r="B36" t="n">
-        <v>0.04652896654543455</v>
+        <v>0.03725080425939261</v>
       </c>
       <c r="C36" t="n">
-        <v>1.590579441562689</v>
+        <v>1.685188902104414</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08676148259455604</v>
+        <v>0.06217827690751524</v>
       </c>
     </row>
     <row r="37">
@@ -950,13 +950,13 @@
         <v>8.458134067357134</v>
       </c>
       <c r="B37" t="n">
-        <v>0.03280709286928526</v>
+        <v>0.05670827136956787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8061126706207142</v>
+        <v>1.049108466779221</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07808493808091957</v>
+        <v>0.07982775483311866</v>
       </c>
     </row>
     <row r="38">
@@ -964,13 +964,13 @@
         <v>8.699795040710196</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05196549139645389</v>
+        <v>0.02608827700342055</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.02329966511899387</v>
+        <v>-0.01160539147173432</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07617106605490609</v>
+        <v>0.07282107666081328</v>
       </c>
     </row>
     <row r="39">
@@ -978,13 +978,13 @@
         <v>8.941456014063258</v>
       </c>
       <c r="B39" t="n">
-        <v>0.04387300361724868</v>
+        <v>0.0610757242406389</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.849517905694269</v>
+        <v>-0.7909789796802305</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06859281713084003</v>
+        <v>0.0490497442584437</v>
       </c>
     </row>
     <row r="40">
@@ -992,13 +992,13 @@
         <v>9.183116987416318</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06196072190591148</v>
+        <v>0.03301426777284067</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.495871626224805</v>
+        <v>-1.587783764468753</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08791204404738306</v>
+        <v>0.09175660600691256</v>
       </c>
     </row>
     <row r="41">
@@ -1006,13 +1006,13 @@
         <v>9.424777960769379</v>
       </c>
       <c r="B41" t="n">
-        <v>0.03064366552201253</v>
+        <v>0.03186259721330165</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.29162283859916</v>
+        <v>-2.217847445097491</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06805169346165137</v>
+        <v>0.06319999942544281</v>
       </c>
     </row>
   </sheetData>
